--- a/project_files/files/templates/rep_mtro_manifiestos.xlsx
+++ b/project_files/files/templates/rep_mtro_manifiestos.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\simma\project_files\files\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>No. Cte.</t>
   </si>
@@ -84,9 +79,6 @@
     <t>Fecha de ingreso</t>
   </si>
   <si>
-    <t>Fecha de servicio</t>
-  </si>
-  <si>
     <t>Tipo de Servicio</t>
   </si>
   <si>
@@ -127,6 +119,18 @@
   </si>
   <si>
     <t>Operador</t>
+  </si>
+  <si>
+    <t>Fecha de Captura</t>
+  </si>
+  <si>
+    <t>Capturista</t>
+  </si>
+  <si>
+    <t>Fecha de Programada de Servicio</t>
+  </si>
+  <si>
+    <t>Fecha de Embarque</t>
   </si>
 </sst>
 </file>
@@ -195,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,12 +222,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -243,13 +258,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -304,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,7 +385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,20 +594,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -579,91 +625,100 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
